--- a/PaleoDB/pbdb_mappings.xlsx
+++ b/PaleoDB/pbdb_mappings.xlsx
@@ -3596,6 +3596,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.obolibrary.org/obo/GO_0000003</t>
+    </r>
+  </si>
+  <si>
     <t>asexual</t>
   </si>
   <si>
@@ -3607,17 +3618,6 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>http://purl.obolibrary.org/obo/GO_0019954</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://purl.obolibrary.org/obo/GO_0000003</t>
     </r>
   </si>
   <si>
@@ -8735,7 +8735,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="245" ht="16" customHeight="1">
+    <row r="245" ht="15.65" customHeight="1">
       <c r="A245" t="s" s="8">
         <v>530</v>
       </c>
@@ -8745,7 +8745,9 @@
       <c r="C245" t="s" s="10">
         <v>532</v>
       </c>
-      <c r="D245" s="16"/>
+      <c r="D245" t="s" s="10">
+        <v>533</v>
+      </c>
       <c r="E245" s="9"/>
       <c r="F245" s="10"/>
     </row>
@@ -8754,13 +8756,13 @@
         <v>530</v>
       </c>
       <c r="B246" t="s" s="9">
+        <v>534</v>
+      </c>
+      <c r="C246" t="s" s="10">
+        <v>535</v>
+      </c>
+      <c r="D246" t="s" s="10">
         <v>533</v>
-      </c>
-      <c r="C246" t="s" s="10">
-        <v>534</v>
-      </c>
-      <c r="D246" t="s" s="10">
-        <v>535</v>
       </c>
       <c r="E246" s="9"/>
       <c r="F246" s="10"/>
@@ -8804,7 +8806,7 @@
         <v>540</v>
       </c>
       <c r="D249" t="s" s="10">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="10"/>
@@ -8820,7 +8822,7 @@
         <v>542</v>
       </c>
       <c r="D250" t="s" s="10">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E250" s="9"/>
       <c r="F250" s="10"/>
@@ -8836,7 +8838,7 @@
         <v>544</v>
       </c>
       <c r="D251" t="s" s="10">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E251" s="9"/>
       <c r="F251" s="10"/>
@@ -9211,17 +9213,18 @@
     <hyperlink ref="D244" r:id="rId312" location="" tooltip="" display=""/>
     <hyperlink ref="F244" r:id="rId313" location="" tooltip="" display=""/>
     <hyperlink ref="C245" r:id="rId314" location="" tooltip="" display=""/>
-    <hyperlink ref="C246" r:id="rId315" location="" tooltip="" display=""/>
-    <hyperlink ref="D246" r:id="rId316" location="" tooltip="" display=""/>
-    <hyperlink ref="C249" r:id="rId317" location="" tooltip="" display=""/>
-    <hyperlink ref="D249" r:id="rId318" location="" tooltip="" display=""/>
-    <hyperlink ref="C250" r:id="rId319" location="" tooltip="" display=""/>
-    <hyperlink ref="D250" r:id="rId320" location="" tooltip="" display=""/>
-    <hyperlink ref="C251" r:id="rId321" location="" tooltip="" display=""/>
-    <hyperlink ref="D251" r:id="rId322" location="" tooltip="" display=""/>
-    <hyperlink ref="C252" r:id="rId323" location="" tooltip="" display=""/>
-    <hyperlink ref="C253" r:id="rId324" location="" tooltip="" display=""/>
-    <hyperlink ref="C254" r:id="rId325" location="" tooltip="" display=""/>
+    <hyperlink ref="D245" r:id="rId315" location="" tooltip="" display=""/>
+    <hyperlink ref="C246" r:id="rId316" location="" tooltip="" display=""/>
+    <hyperlink ref="D246" r:id="rId317" location="" tooltip="" display=""/>
+    <hyperlink ref="C249" r:id="rId318" location="" tooltip="" display=""/>
+    <hyperlink ref="D249" r:id="rId319" location="" tooltip="" display=""/>
+    <hyperlink ref="C250" r:id="rId320" location="" tooltip="" display=""/>
+    <hyperlink ref="D250" r:id="rId321" location="" tooltip="" display=""/>
+    <hyperlink ref="C251" r:id="rId322" location="" tooltip="" display=""/>
+    <hyperlink ref="D251" r:id="rId323" location="" tooltip="" display=""/>
+    <hyperlink ref="C252" r:id="rId324" location="" tooltip="" display=""/>
+    <hyperlink ref="C253" r:id="rId325" location="" tooltip="" display=""/>
+    <hyperlink ref="C254" r:id="rId326" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/PaleoDB/pbdb_mappings.xlsx
+++ b/PaleoDB/pbdb_mappings.xlsx
@@ -3401,10 +3401,10 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://eol.org/schema/terms/arboreal</t>
+        <color indexed="14"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://purl.obolibrary.org/obo/ENVO_00000571</t>
     </r>
   </si>
   <si>
@@ -3736,7 +3736,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3745,7 +3745,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="15"/>
@@ -3790,6 +3790,12 @@
       <u val="single"/>
       <sz val="10"/>
       <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="14"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -3885,16 +3891,16 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -3909,22 +3915,22 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -3949,6 +3955,7 @@
       <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ff0000ee"/>
       <rgbColor rgb="fffbcaa2"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -3997,14 +4004,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica"/>
-        <a:ea typeface="Helvetica"/>
-        <a:cs typeface="Helvetica"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office Theme">
@@ -4099,9 +4106,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -4181,7 +4188,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4209,10 +4216,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4468,9 +4475,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -4758,7 +4765,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4786,10 +4793,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica"/>
+            <a:ea typeface="Helvetica"/>
+            <a:cs typeface="Helvetica"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -5044,15 +5051,15 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="17.7344" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7344" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.0469" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1797" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.4922" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.2891" style="1" customWidth="1"/>
-    <col min="7" max="256" width="10.7344" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.3516" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -8899,337 +8906,337 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="C3" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="C4" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="C5" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="C6" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="C7" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="C8" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="C9" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="C10" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="C11" r:id="rId10" location="" tooltip="" display=""/>
-    <hyperlink ref="C12" r:id="rId11" location="" tooltip="" display=""/>
-    <hyperlink ref="C13" r:id="rId12" location="" tooltip="" display=""/>
-    <hyperlink ref="C14" r:id="rId13" location="" tooltip="" display=""/>
-    <hyperlink ref="C15" r:id="rId14" location="" tooltip="" display=""/>
-    <hyperlink ref="C16" r:id="rId15" location="" tooltip="" display=""/>
-    <hyperlink ref="C17" r:id="rId16" location="" tooltip="" display=""/>
-    <hyperlink ref="C18" r:id="rId17" location="" tooltip="" display=""/>
-    <hyperlink ref="C19" r:id="rId18" location="" tooltip="" display=""/>
-    <hyperlink ref="C20" r:id="rId19" location="" tooltip="" display=""/>
-    <hyperlink ref="C21" r:id="rId20" location="" tooltip="" display=""/>
-    <hyperlink ref="C22" r:id="rId21" location="" tooltip="" display=""/>
-    <hyperlink ref="C23" r:id="rId22" location="" tooltip="" display=""/>
-    <hyperlink ref="C24" r:id="rId23" location="" tooltip="" display=""/>
-    <hyperlink ref="C25" r:id="rId24" location="" tooltip="" display=""/>
-    <hyperlink ref="C26" r:id="rId25" location="" tooltip="" display=""/>
-    <hyperlink ref="C27" r:id="rId26" location="" tooltip="" display=""/>
-    <hyperlink ref="C28" r:id="rId27" location="" tooltip="" display=""/>
-    <hyperlink ref="C29" r:id="rId28" location="" tooltip="" display=""/>
-    <hyperlink ref="C30" r:id="rId29" location="" tooltip="" display=""/>
-    <hyperlink ref="C31" r:id="rId30" location="" tooltip="" display=""/>
-    <hyperlink ref="C32" r:id="rId31" location="" tooltip="" display=""/>
-    <hyperlink ref="C33" r:id="rId32" location="" tooltip="" display=""/>
-    <hyperlink ref="C34" r:id="rId33" location="" tooltip="" display=""/>
-    <hyperlink ref="C35" r:id="rId34" location="" tooltip="" display=""/>
-    <hyperlink ref="C36" r:id="rId35" location="" tooltip="" display=""/>
-    <hyperlink ref="C37" r:id="rId36" location="" tooltip="" display=""/>
-    <hyperlink ref="C38" r:id="rId37" location="" tooltip="" display=""/>
-    <hyperlink ref="C39" r:id="rId38" location="" tooltip="" display=""/>
-    <hyperlink ref="C40" r:id="rId39" location="" tooltip="" display=""/>
-    <hyperlink ref="C41" r:id="rId40" location="" tooltip="" display=""/>
-    <hyperlink ref="C42" r:id="rId41" location="" tooltip="" display=""/>
-    <hyperlink ref="C43" r:id="rId42" location="" tooltip="" display=""/>
-    <hyperlink ref="C44" r:id="rId43" location="" tooltip="" display=""/>
-    <hyperlink ref="C45" r:id="rId44" location="" tooltip="" display=""/>
-    <hyperlink ref="C46" r:id="rId45" location="" tooltip="" display=""/>
-    <hyperlink ref="C47" r:id="rId46" location="" tooltip="" display=""/>
-    <hyperlink ref="C48" r:id="rId47" location="" tooltip="" display=""/>
-    <hyperlink ref="C49" r:id="rId48" location="" tooltip="" display=""/>
-    <hyperlink ref="C50" r:id="rId49" location="" tooltip="" display=""/>
-    <hyperlink ref="C51" r:id="rId50" location="" tooltip="" display=""/>
-    <hyperlink ref="C52" r:id="rId51" location="" tooltip="" display=""/>
-    <hyperlink ref="C53" r:id="rId52" location="" tooltip="" display=""/>
-    <hyperlink ref="C54" r:id="rId53" location="" tooltip="" display=""/>
-    <hyperlink ref="C55" r:id="rId54" location="" tooltip="" display=""/>
-    <hyperlink ref="C56" r:id="rId55" location="" tooltip="" display=""/>
-    <hyperlink ref="C57" r:id="rId56" location="" tooltip="" display=""/>
-    <hyperlink ref="C58" r:id="rId57" location="" tooltip="" display=""/>
-    <hyperlink ref="C59" r:id="rId58" location="" tooltip="" display=""/>
-    <hyperlink ref="C60" r:id="rId59" location="" tooltip="" display=""/>
-    <hyperlink ref="C61" r:id="rId60" location="" tooltip="" display=""/>
-    <hyperlink ref="C62" r:id="rId61" location="" tooltip="" display=""/>
-    <hyperlink ref="C63" r:id="rId62" location="" tooltip="" display=""/>
-    <hyperlink ref="C64" r:id="rId63" location="" tooltip="" display=""/>
-    <hyperlink ref="C65" r:id="rId64" location="" tooltip="" display=""/>
-    <hyperlink ref="C66" r:id="rId65" location="" tooltip="" display=""/>
-    <hyperlink ref="C67" r:id="rId66" location="" tooltip="" display=""/>
-    <hyperlink ref="C68" r:id="rId67" location="" tooltip="" display=""/>
-    <hyperlink ref="C69" r:id="rId68" location="" tooltip="" display=""/>
-    <hyperlink ref="C70" r:id="rId69" location="" tooltip="" display=""/>
-    <hyperlink ref="C71" r:id="rId70" location="" tooltip="" display=""/>
-    <hyperlink ref="C72" r:id="rId71" location="" tooltip="" display=""/>
-    <hyperlink ref="C73" r:id="rId72" location="" tooltip="" display=""/>
-    <hyperlink ref="C74" r:id="rId73" location="" tooltip="" display=""/>
-    <hyperlink ref="C75" r:id="rId74" location="" tooltip="" display=""/>
-    <hyperlink ref="C76" r:id="rId75" location="" tooltip="" display=""/>
-    <hyperlink ref="C77" r:id="rId76" location="" tooltip="" display=""/>
-    <hyperlink ref="C78" r:id="rId77" location="" tooltip="" display=""/>
-    <hyperlink ref="C79" r:id="rId78" location="" tooltip="" display=""/>
-    <hyperlink ref="C80" r:id="rId79" location="" tooltip="" display=""/>
-    <hyperlink ref="C81" r:id="rId80" location="" tooltip="" display=""/>
-    <hyperlink ref="C82" r:id="rId81" location="" tooltip="" display=""/>
-    <hyperlink ref="C83" r:id="rId82" location="" tooltip="" display=""/>
-    <hyperlink ref="C84" r:id="rId83" location="" tooltip="" display=""/>
-    <hyperlink ref="C85" r:id="rId84" location="" tooltip="" display=""/>
-    <hyperlink ref="C86" r:id="rId85" location="" tooltip="" display=""/>
-    <hyperlink ref="C87" r:id="rId86" location="" tooltip="" display=""/>
-    <hyperlink ref="C88" r:id="rId87" location="" tooltip="" display=""/>
-    <hyperlink ref="C89" r:id="rId88" location="" tooltip="" display=""/>
-    <hyperlink ref="C90" r:id="rId89" location="" tooltip="" display=""/>
-    <hyperlink ref="C91" r:id="rId90" location="" tooltip="" display=""/>
-    <hyperlink ref="C92" r:id="rId91" location="" tooltip="" display=""/>
-    <hyperlink ref="C93" r:id="rId92" location="" tooltip="" display=""/>
-    <hyperlink ref="C94" r:id="rId93" location="" tooltip="" display=""/>
-    <hyperlink ref="C95" r:id="rId94" location="" tooltip="" display=""/>
-    <hyperlink ref="C96" r:id="rId95" location="" tooltip="" display=""/>
-    <hyperlink ref="C97" r:id="rId96" location="" tooltip="" display=""/>
-    <hyperlink ref="C98" r:id="rId97" location="" tooltip="" display=""/>
-    <hyperlink ref="C99" r:id="rId98" location="" tooltip="" display=""/>
-    <hyperlink ref="C100" r:id="rId99" location="" tooltip="" display=""/>
-    <hyperlink ref="C101" r:id="rId100" location="" tooltip="" display=""/>
-    <hyperlink ref="C102" r:id="rId101" location="" tooltip="" display=""/>
-    <hyperlink ref="C103" r:id="rId102" location="" tooltip="" display=""/>
-    <hyperlink ref="C104" r:id="rId103" location="" tooltip="" display=""/>
-    <hyperlink ref="C105" r:id="rId104" location="" tooltip="" display=""/>
-    <hyperlink ref="C106" r:id="rId105" location="" tooltip="" display=""/>
-    <hyperlink ref="C107" r:id="rId106" location="" tooltip="" display=""/>
-    <hyperlink ref="C108" r:id="rId107" location="" tooltip="" display=""/>
-    <hyperlink ref="C109" r:id="rId108" location="" tooltip="" display=""/>
-    <hyperlink ref="C110" r:id="rId109" location="" tooltip="" display=""/>
-    <hyperlink ref="C111" r:id="rId110" location="" tooltip="" display=""/>
-    <hyperlink ref="C112" r:id="rId111" location="" tooltip="" display=""/>
-    <hyperlink ref="C113" r:id="rId112" location="" tooltip="" display=""/>
-    <hyperlink ref="C114" r:id="rId113" location="" tooltip="" display=""/>
-    <hyperlink ref="C115" r:id="rId114" location="" tooltip="" display=""/>
-    <hyperlink ref="C116" r:id="rId115" location="" tooltip="" display=""/>
-    <hyperlink ref="C117" r:id="rId116" location="" tooltip="" display=""/>
-    <hyperlink ref="C118" r:id="rId117" location="" tooltip="" display=""/>
-    <hyperlink ref="C119" r:id="rId118" location="" tooltip="" display=""/>
-    <hyperlink ref="C120" r:id="rId119" location="" tooltip="" display=""/>
-    <hyperlink ref="C121" r:id="rId120" location="" tooltip="" display=""/>
-    <hyperlink ref="C122" r:id="rId121" location="" tooltip="" display=""/>
-    <hyperlink ref="C123" r:id="rId122" location="" tooltip="" display=""/>
-    <hyperlink ref="C124" r:id="rId123" location="" tooltip="" display=""/>
-    <hyperlink ref="C125" r:id="rId124" location="" tooltip="" display=""/>
-    <hyperlink ref="C126" r:id="rId125" location="" tooltip="" display=""/>
-    <hyperlink ref="C127" r:id="rId126" location="" tooltip="" display=""/>
-    <hyperlink ref="C128" r:id="rId127" location="" tooltip="" display=""/>
-    <hyperlink ref="C129" r:id="rId128" location="" tooltip="" display=""/>
-    <hyperlink ref="C130" r:id="rId129" location="" tooltip="" display=""/>
-    <hyperlink ref="C131" r:id="rId130" location="" tooltip="" display=""/>
-    <hyperlink ref="C132" r:id="rId131" location="" tooltip="" display=""/>
-    <hyperlink ref="C133" r:id="rId132" location="" tooltip="" display=""/>
-    <hyperlink ref="C134" r:id="rId133" location="" tooltip="" display=""/>
-    <hyperlink ref="C135" r:id="rId134" location="" tooltip="" display=""/>
-    <hyperlink ref="C136" r:id="rId135" location="" tooltip="" display=""/>
-    <hyperlink ref="C137" r:id="rId136" location="" tooltip="" display=""/>
-    <hyperlink ref="C138" r:id="rId137" location="" tooltip="" display=""/>
-    <hyperlink ref="C139" r:id="rId138" location="" tooltip="" display=""/>
-    <hyperlink ref="C140" r:id="rId139" location="" tooltip="" display=""/>
-    <hyperlink ref="C141" r:id="rId140" location="" tooltip="" display=""/>
-    <hyperlink ref="C142" r:id="rId141" location="" tooltip="" display=""/>
-    <hyperlink ref="C143" r:id="rId142" location="" tooltip="" display=""/>
-    <hyperlink ref="C144" r:id="rId143" location="" tooltip="" display=""/>
-    <hyperlink ref="C145" r:id="rId144" location="" tooltip="" display=""/>
-    <hyperlink ref="C146" r:id="rId145" location="" tooltip="" display=""/>
-    <hyperlink ref="C147" r:id="rId146" location="" tooltip="" display=""/>
-    <hyperlink ref="C148" r:id="rId147" location="" tooltip="" display=""/>
-    <hyperlink ref="C149" r:id="rId148" location="" tooltip="" display=""/>
-    <hyperlink ref="C150" r:id="rId149" location="" tooltip="" display=""/>
-    <hyperlink ref="C151" r:id="rId150" location="" tooltip="" display=""/>
-    <hyperlink ref="C152" r:id="rId151" location="" tooltip="" display=""/>
-    <hyperlink ref="C153" r:id="rId152" location="" tooltip="" display=""/>
-    <hyperlink ref="C154" r:id="rId153" location="" tooltip="" display=""/>
-    <hyperlink ref="C155" r:id="rId154" location="" tooltip="" display=""/>
-    <hyperlink ref="C156" r:id="rId155" location="" tooltip="" display=""/>
-    <hyperlink ref="C157" r:id="rId156" location="" tooltip="" display=""/>
-    <hyperlink ref="C158" r:id="rId157" location="" tooltip="" display=""/>
-    <hyperlink ref="C159" r:id="rId158" location="" tooltip="" display=""/>
-    <hyperlink ref="C160" r:id="rId159" location="" tooltip="" display=""/>
-    <hyperlink ref="C161" r:id="rId160" location="" tooltip="" display=""/>
-    <hyperlink ref="C162" r:id="rId161" location="" tooltip="" display=""/>
-    <hyperlink ref="C164" r:id="rId162" location="" tooltip="" display=""/>
-    <hyperlink ref="C165" r:id="rId163" location="" tooltip="" display=""/>
-    <hyperlink ref="C166" r:id="rId164" location="" tooltip="" display=""/>
-    <hyperlink ref="C167" r:id="rId165" location="" tooltip="" display=""/>
-    <hyperlink ref="C168" r:id="rId166" location="" tooltip="" display=""/>
-    <hyperlink ref="C169" r:id="rId167" location="" tooltip="" display=""/>
-    <hyperlink ref="C170" r:id="rId168" location="" tooltip="" display=""/>
-    <hyperlink ref="C171" r:id="rId169" location="" tooltip="" display=""/>
-    <hyperlink ref="C172" r:id="rId170" location="" tooltip="" display=""/>
-    <hyperlink ref="C173" r:id="rId171" location="" tooltip="" display=""/>
-    <hyperlink ref="C174" r:id="rId172" location="" tooltip="" display=""/>
-    <hyperlink ref="C175" r:id="rId173" location="" tooltip="" display=""/>
-    <hyperlink ref="C176" r:id="rId174" location="" tooltip="" display=""/>
-    <hyperlink ref="C177" r:id="rId175" location="" tooltip="" display=""/>
-    <hyperlink ref="C178" r:id="rId176" location="" tooltip="" display=""/>
-    <hyperlink ref="C179" r:id="rId177" location="" tooltip="" display=""/>
-    <hyperlink ref="C180" r:id="rId178" location="" tooltip="" display=""/>
-    <hyperlink ref="D180" r:id="rId179" location="" tooltip="" display=""/>
-    <hyperlink ref="C181" r:id="rId180" location="" tooltip="" display=""/>
-    <hyperlink ref="D181" r:id="rId181" location="" tooltip="" display=""/>
-    <hyperlink ref="C182" r:id="rId182" location="" tooltip="" display=""/>
-    <hyperlink ref="D182" r:id="rId183" location="" tooltip="" display=""/>
-    <hyperlink ref="C183" r:id="rId184" location="" tooltip="" display=""/>
-    <hyperlink ref="D183" r:id="rId185" location="" tooltip="" display=""/>
-    <hyperlink ref="C184" r:id="rId186" location="" tooltip="" display=""/>
-    <hyperlink ref="D184" r:id="rId187" location="" tooltip="" display=""/>
-    <hyperlink ref="C185" r:id="rId188" location="" tooltip="" display=""/>
-    <hyperlink ref="D185" r:id="rId189" location="" tooltip="" display=""/>
-    <hyperlink ref="C186" r:id="rId190" location="" tooltip="" display=""/>
-    <hyperlink ref="D186" r:id="rId191" location="" tooltip="" display=""/>
-    <hyperlink ref="C187" r:id="rId192" location="" tooltip="" display=""/>
-    <hyperlink ref="D187" r:id="rId193" location="" tooltip="" display=""/>
-    <hyperlink ref="C188" r:id="rId194" location="" tooltip="" display=""/>
-    <hyperlink ref="D188" r:id="rId195" location="" tooltip="" display=""/>
-    <hyperlink ref="C189" r:id="rId196" location="" tooltip="" display=""/>
-    <hyperlink ref="D189" r:id="rId197" location="" tooltip="" display=""/>
-    <hyperlink ref="C190" r:id="rId198" location="" tooltip="" display=""/>
-    <hyperlink ref="D190" r:id="rId199" location="" tooltip="" display=""/>
-    <hyperlink ref="C191" r:id="rId200" location="" tooltip="" display=""/>
-    <hyperlink ref="D191" r:id="rId201" location="" tooltip="" display=""/>
-    <hyperlink ref="C192" r:id="rId202" location="" tooltip="" display=""/>
-    <hyperlink ref="D192" r:id="rId203" location="" tooltip="" display=""/>
-    <hyperlink ref="C193" r:id="rId204" location="" tooltip="" display=""/>
-    <hyperlink ref="D193" r:id="rId205" location="" tooltip="" display=""/>
-    <hyperlink ref="C194" r:id="rId206" location="" tooltip="" display=""/>
-    <hyperlink ref="D194" r:id="rId207" location="" tooltip="" display=""/>
-    <hyperlink ref="C195" r:id="rId208" location="" tooltip="" display=""/>
-    <hyperlink ref="D195" r:id="rId209" location="" tooltip="" display=""/>
-    <hyperlink ref="C196" r:id="rId210" location="" tooltip="" display=""/>
-    <hyperlink ref="D196" r:id="rId211" location="" tooltip="" display=""/>
-    <hyperlink ref="C197" r:id="rId212" location="" tooltip="" display=""/>
-    <hyperlink ref="D197" r:id="rId213" location="" tooltip="" display=""/>
-    <hyperlink ref="C198" r:id="rId214" location="" tooltip="" display=""/>
-    <hyperlink ref="D198" r:id="rId215" location="" tooltip="" display=""/>
-    <hyperlink ref="C199" r:id="rId216" location="" tooltip="" display=""/>
-    <hyperlink ref="D199" r:id="rId217" location="" tooltip="" display=""/>
-    <hyperlink ref="C200" r:id="rId218" location="" tooltip="" display=""/>
-    <hyperlink ref="D200" r:id="rId219" location="" tooltip="" display=""/>
-    <hyperlink ref="C201" r:id="rId220" location="" tooltip="" display=""/>
-    <hyperlink ref="D201" r:id="rId221" location="" tooltip="" display=""/>
-    <hyperlink ref="C202" r:id="rId222" location="" tooltip="" display=""/>
-    <hyperlink ref="F202" r:id="rId223" location="" tooltip="" display=""/>
-    <hyperlink ref="C203" r:id="rId224" location="" tooltip="" display=""/>
-    <hyperlink ref="F203" r:id="rId225" location="" tooltip="" display=""/>
-    <hyperlink ref="C204" r:id="rId226" location="" tooltip="" display=""/>
-    <hyperlink ref="F204" r:id="rId227" location="" tooltip="" display=""/>
-    <hyperlink ref="C205" r:id="rId228" location="" tooltip="" display=""/>
-    <hyperlink ref="F205" r:id="rId229" location="" tooltip="" display=""/>
-    <hyperlink ref="C206" r:id="rId230" location="" tooltip="" display=""/>
-    <hyperlink ref="F206" r:id="rId231" location="" tooltip="" display=""/>
-    <hyperlink ref="C207" r:id="rId232" location="" tooltip="" display=""/>
-    <hyperlink ref="F207" r:id="rId233" location="" tooltip="" display=""/>
-    <hyperlink ref="C208" r:id="rId234" location="" tooltip="" display=""/>
-    <hyperlink ref="F208" r:id="rId235" location="" tooltip="" display=""/>
-    <hyperlink ref="C209" r:id="rId236" location="" tooltip="" display=""/>
-    <hyperlink ref="F209" r:id="rId237" location="" tooltip="" display=""/>
-    <hyperlink ref="C210" r:id="rId238" location="" tooltip="" display=""/>
-    <hyperlink ref="F210" r:id="rId239" location="" tooltip="" display=""/>
-    <hyperlink ref="C211" r:id="rId240" location="" tooltip="" display=""/>
-    <hyperlink ref="F211" r:id="rId241" location="" tooltip="" display=""/>
-    <hyperlink ref="C212" r:id="rId242" location="" tooltip="" display=""/>
-    <hyperlink ref="F212" r:id="rId243" location="" tooltip="" display=""/>
-    <hyperlink ref="C213" r:id="rId244" location="" tooltip="" display=""/>
-    <hyperlink ref="F213" r:id="rId245" location="" tooltip="" display=""/>
-    <hyperlink ref="C214" r:id="rId246" location="" tooltip="" display=""/>
-    <hyperlink ref="D214" r:id="rId247" location="" tooltip="" display=""/>
-    <hyperlink ref="C215" r:id="rId248" location="" tooltip="" display=""/>
-    <hyperlink ref="D215" r:id="rId249" location="" tooltip="" display=""/>
-    <hyperlink ref="C216" r:id="rId250" location="" tooltip="" display=""/>
-    <hyperlink ref="D216" r:id="rId251" location="" tooltip="" display=""/>
-    <hyperlink ref="C217" r:id="rId252" location="" tooltip="" display=""/>
-    <hyperlink ref="D217" r:id="rId253" location="" tooltip="" display=""/>
-    <hyperlink ref="C218" r:id="rId254" location="" tooltip="" display=""/>
-    <hyperlink ref="D218" r:id="rId255" location="" tooltip="" display=""/>
-    <hyperlink ref="C219" r:id="rId256" location="" tooltip="" display=""/>
-    <hyperlink ref="D219" r:id="rId257" location="" tooltip="" display=""/>
-    <hyperlink ref="C220" r:id="rId258" location="" tooltip="" display=""/>
-    <hyperlink ref="D220" r:id="rId259" location="" tooltip="" display=""/>
-    <hyperlink ref="C221" r:id="rId260" location="" tooltip="" display=""/>
-    <hyperlink ref="D221" r:id="rId261" location="" tooltip="" display=""/>
-    <hyperlink ref="C222" r:id="rId262" location="" tooltip="" display=""/>
-    <hyperlink ref="D222" r:id="rId263" location="" tooltip="" display=""/>
-    <hyperlink ref="C223" r:id="rId264" location="" tooltip="" display=""/>
-    <hyperlink ref="D223" r:id="rId265" location="" tooltip="" display=""/>
-    <hyperlink ref="C224" r:id="rId266" location="" tooltip="" display=""/>
-    <hyperlink ref="D224" r:id="rId267" location="" tooltip="" display=""/>
-    <hyperlink ref="C225" r:id="rId268" location="" tooltip="" display=""/>
-    <hyperlink ref="D225" r:id="rId269" location="" tooltip="" display=""/>
-    <hyperlink ref="C226" r:id="rId270" location="" tooltip="" display=""/>
-    <hyperlink ref="D226" r:id="rId271" location="" tooltip="" display=""/>
-    <hyperlink ref="C227" r:id="rId272" location="" tooltip="" display=""/>
-    <hyperlink ref="D227" r:id="rId273" location="" tooltip="" display=""/>
-    <hyperlink ref="C228" r:id="rId274" location="" tooltip="" display=""/>
-    <hyperlink ref="D228" r:id="rId275" location="" tooltip="" display=""/>
-    <hyperlink ref="C229" r:id="rId276" location="" tooltip="" display=""/>
-    <hyperlink ref="D229" r:id="rId277" location="" tooltip="" display=""/>
-    <hyperlink ref="C230" r:id="rId278" location="" tooltip="" display=""/>
-    <hyperlink ref="D230" r:id="rId279" location="" tooltip="" display=""/>
-    <hyperlink ref="C231" r:id="rId280" location="" tooltip="" display=""/>
-    <hyperlink ref="D231" r:id="rId281" location="" tooltip="" display=""/>
-    <hyperlink ref="C232" r:id="rId282" location="" tooltip="" display=""/>
-    <hyperlink ref="D232" r:id="rId283" location="" tooltip="" display=""/>
-    <hyperlink ref="C233" r:id="rId284" location="" tooltip="" display=""/>
-    <hyperlink ref="D233" r:id="rId285" location="" tooltip="" display=""/>
-    <hyperlink ref="C234" r:id="rId286" location="" tooltip="" display=""/>
-    <hyperlink ref="D234" r:id="rId287" location="" tooltip="" display=""/>
-    <hyperlink ref="C235" r:id="rId288" location="" tooltip="" display=""/>
-    <hyperlink ref="D235" r:id="rId289" location="" tooltip="" display=""/>
-    <hyperlink ref="C236" r:id="rId290" location="" tooltip="" display=""/>
-    <hyperlink ref="D236" r:id="rId291" location="" tooltip="" display=""/>
-    <hyperlink ref="C237" r:id="rId292" location="" tooltip="" display=""/>
-    <hyperlink ref="D237" r:id="rId293" location="" tooltip="" display=""/>
-    <hyperlink ref="F237" r:id="rId294" location="" tooltip="" display=""/>
-    <hyperlink ref="C238" r:id="rId295" location="" tooltip="" display=""/>
-    <hyperlink ref="D238" r:id="rId296" location="" tooltip="" display=""/>
-    <hyperlink ref="C239" r:id="rId297" location="" tooltip="" display=""/>
-    <hyperlink ref="D239" r:id="rId298" location="" tooltip="" display=""/>
-    <hyperlink ref="C240" r:id="rId299" location="" tooltip="" display=""/>
-    <hyperlink ref="D240" r:id="rId300" location="" tooltip="" display=""/>
-    <hyperlink ref="F240" r:id="rId301" location="" tooltip="" display=""/>
-    <hyperlink ref="C241" r:id="rId302" location="" tooltip="" display=""/>
-    <hyperlink ref="D241" r:id="rId303" location="" tooltip="" display=""/>
-    <hyperlink ref="F241" r:id="rId304" location="" tooltip="" display=""/>
-    <hyperlink ref="C242" r:id="rId305" location="" tooltip="" display=""/>
-    <hyperlink ref="D242" r:id="rId306" location="" tooltip="" display=""/>
-    <hyperlink ref="F242" r:id="rId307" location="" tooltip="" display=""/>
-    <hyperlink ref="C243" r:id="rId308" location="" tooltip="" display=""/>
-    <hyperlink ref="D243" r:id="rId309" location="" tooltip="" display=""/>
-    <hyperlink ref="F243" r:id="rId310" location="" tooltip="" display=""/>
-    <hyperlink ref="C244" r:id="rId311" location="" tooltip="" display=""/>
-    <hyperlink ref="D244" r:id="rId312" location="" tooltip="" display=""/>
-    <hyperlink ref="F244" r:id="rId313" location="" tooltip="" display=""/>
-    <hyperlink ref="C245" r:id="rId314" location="" tooltip="" display=""/>
-    <hyperlink ref="D245" r:id="rId315" location="" tooltip="" display=""/>
-    <hyperlink ref="C246" r:id="rId316" location="" tooltip="" display=""/>
-    <hyperlink ref="D246" r:id="rId317" location="" tooltip="" display=""/>
-    <hyperlink ref="C249" r:id="rId318" location="" tooltip="" display=""/>
-    <hyperlink ref="D249" r:id="rId319" location="" tooltip="" display=""/>
-    <hyperlink ref="C250" r:id="rId320" location="" tooltip="" display=""/>
-    <hyperlink ref="D250" r:id="rId321" location="" tooltip="" display=""/>
-    <hyperlink ref="C251" r:id="rId322" location="" tooltip="" display=""/>
-    <hyperlink ref="D251" r:id="rId323" location="" tooltip="" display=""/>
-    <hyperlink ref="C252" r:id="rId324" location="" tooltip="" display=""/>
-    <hyperlink ref="C253" r:id="rId325" location="" tooltip="" display=""/>
-    <hyperlink ref="C254" r:id="rId326" location="" tooltip="" display=""/>
+    <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Aalenian"/>
+    <hyperlink ref="C3" r:id="rId2" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Aeronian"/>
+    <hyperlink ref="C4" r:id="rId3" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Albian"/>
+    <hyperlink ref="C5" r:id="rId4" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Anisian"/>
+    <hyperlink ref="C6" r:id="rId5" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Aptian"/>
+    <hyperlink ref="C7" r:id="rId6" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Aquitanian"/>
+    <hyperlink ref="C8" r:id="rId7" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Artinskian"/>
+    <hyperlink ref="C9" r:id="rId8" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Asselian"/>
+    <hyperlink ref="C10" r:id="rId9" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Bajocian"/>
+    <hyperlink ref="C11" r:id="rId10" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Barremian"/>
+    <hyperlink ref="C12" r:id="rId11" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Bartonian"/>
+    <hyperlink ref="C13" r:id="rId12" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Bashkirian"/>
+    <hyperlink ref="C14" r:id="rId13" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Bathonian"/>
+    <hyperlink ref="C15" r:id="rId14" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Berriasian"/>
+    <hyperlink ref="C16" r:id="rId15" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Burdigalian"/>
+    <hyperlink ref="C17" r:id="rId16" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Calabrian"/>
+    <hyperlink ref="C18" r:id="rId17" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Callovian"/>
+    <hyperlink ref="C19" r:id="rId18" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Cambrian"/>
+    <hyperlink ref="C20" r:id="rId19" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Campanian"/>
+    <hyperlink ref="C21" r:id="rId20" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Capitanian"/>
+    <hyperlink ref="C22" r:id="rId21" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Carboniferous"/>
+    <hyperlink ref="C23" r:id="rId22" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Carnian"/>
+    <hyperlink ref="C24" r:id="rId23" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Cenomanian"/>
+    <hyperlink ref="C25" r:id="rId24" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Cenozoic"/>
+    <hyperlink ref="C26" r:id="rId25" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Changhsingian"/>
+    <hyperlink ref="C27" r:id="rId26" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Chattian"/>
+    <hyperlink ref="C28" r:id="rId27" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Cisuralian"/>
+    <hyperlink ref="C29" r:id="rId28" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Coniacian"/>
+    <hyperlink ref="C30" r:id="rId29" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Cretaceous"/>
+    <hyperlink ref="C31" r:id="rId30" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Cryogenian"/>
+    <hyperlink ref="C32" r:id="rId31" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Danian"/>
+    <hyperlink ref="C33" r:id="rId32" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Dapingian"/>
+    <hyperlink ref="C34" r:id="rId33" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Darriwilian"/>
+    <hyperlink ref="C35" r:id="rId34" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Devonian"/>
+    <hyperlink ref="C36" r:id="rId35" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Drumian"/>
+    <hyperlink ref="C37" r:id="rId36" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/LowerCretaceous"/>
+    <hyperlink ref="C38" r:id="rId37" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/LowerDevonian"/>
+    <hyperlink ref="C39" r:id="rId38" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/LowerJurassic"/>
+    <hyperlink ref="C40" r:id="rId39" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/LowerOrdovician"/>
+    <hyperlink ref="C41" r:id="rId40" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/LowerTriassic"/>
+    <hyperlink ref="C42" r:id="rId41" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Ediacaran"/>
+    <hyperlink ref="C43" r:id="rId42" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Eifelian"/>
+    <hyperlink ref="C44" r:id="rId43" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Emsian"/>
+    <hyperlink ref="C45" r:id="rId44" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Eocene"/>
+    <hyperlink ref="C46" r:id="rId45" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Famennian"/>
+    <hyperlink ref="C47" r:id="rId46" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Floian"/>
+    <hyperlink ref="C48" r:id="rId47" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Fortunian"/>
+    <hyperlink ref="C49" r:id="rId48" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Frasnian"/>
+    <hyperlink ref="C50" r:id="rId49" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Furongian"/>
+    <hyperlink ref="C51" r:id="rId50" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Gelasian"/>
+    <hyperlink ref="C52" r:id="rId51" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Givetian"/>
+    <hyperlink ref="C53" r:id="rId52" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Gorstian"/>
+    <hyperlink ref="C54" r:id="rId53" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Guadalupian"/>
+    <hyperlink ref="C55" r:id="rId54" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Guzhangian"/>
+    <hyperlink ref="C56" r:id="rId55" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Gzhelian"/>
+    <hyperlink ref="C57" r:id="rId56" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Hauterivian"/>
+    <hyperlink ref="C58" r:id="rId57" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Hettangian"/>
+    <hyperlink ref="C59" r:id="rId58" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Hirnantian"/>
+    <hyperlink ref="C60" r:id="rId59" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Holocene"/>
+    <hyperlink ref="C61" r:id="rId60" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Homerian"/>
+    <hyperlink ref="C62" r:id="rId61" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Induan"/>
+    <hyperlink ref="C63" r:id="rId62" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Jiangshanian"/>
+    <hyperlink ref="C64" r:id="rId63" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Jurassic"/>
+    <hyperlink ref="C65" r:id="rId64" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Kasimovian"/>
+    <hyperlink ref="C66" r:id="rId65" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Katian"/>
+    <hyperlink ref="C67" r:id="rId66" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Kimmeridgian"/>
+    <hyperlink ref="C68" r:id="rId67" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Kungurian"/>
+    <hyperlink ref="C69" r:id="rId68" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Ladinian"/>
+    <hyperlink ref="C70" r:id="rId69" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Langhian"/>
+    <hyperlink ref="C71" r:id="rId70" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/UpperCretaceous"/>
+    <hyperlink ref="C72" r:id="rId71" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/UpperDevonian"/>
+    <hyperlink ref="C73" r:id="rId72" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/UpperJurassic"/>
+    <hyperlink ref="C74" r:id="rId73" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/UpperOrdovician"/>
+    <hyperlink ref="C75" r:id="rId74" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/UpperPleistocene"/>
+    <hyperlink ref="C76" r:id="rId75" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/UpperTriassic"/>
+    <hyperlink ref="C77" r:id="rId76" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Llandovery"/>
+    <hyperlink ref="C78" r:id="rId77" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Lochkovian"/>
+    <hyperlink ref="C79" r:id="rId78" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Lopingian"/>
+    <hyperlink ref="C80" r:id="rId79" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Ludfordian"/>
+    <hyperlink ref="C81" r:id="rId80" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Ludlow"/>
+    <hyperlink ref="C82" r:id="rId81" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Lutetian"/>
+    <hyperlink ref="C83" r:id="rId82" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Maastrichtian"/>
+    <hyperlink ref="C84" r:id="rId83" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Mesozoic"/>
+    <hyperlink ref="C85" r:id="rId84" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Messinian"/>
+    <hyperlink ref="C86" r:id="rId85" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/MiddleDevonian"/>
+    <hyperlink ref="C87" r:id="rId86" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/MiddleJurassic"/>
+    <hyperlink ref="C88" r:id="rId87" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/MiddleOrdovician"/>
+    <hyperlink ref="C89" r:id="rId88" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/MiddlePleistocene"/>
+    <hyperlink ref="C90" r:id="rId89" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/MiddleTriassic"/>
+    <hyperlink ref="C91" r:id="rId90" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Miocene"/>
+    <hyperlink ref="C92" r:id="rId91" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Mississippian"/>
+    <hyperlink ref="C93" r:id="rId92" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Moscovian"/>
+    <hyperlink ref="C94" r:id="rId93" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Neogene"/>
+    <hyperlink ref="C95" r:id="rId94" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Neoproterozoic"/>
+    <hyperlink ref="C96" r:id="rId95" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Norian"/>
+    <hyperlink ref="C97" r:id="rId96" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Olenekian"/>
+    <hyperlink ref="C98" r:id="rId97" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Oligocene"/>
+    <hyperlink ref="C99" r:id="rId98" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Ordovician"/>
+    <hyperlink ref="C100" r:id="rId99" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Oxfordian"/>
+    <hyperlink ref="C101" r:id="rId100" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Paleoarchean"/>
+    <hyperlink ref="C102" r:id="rId101" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Paleocene"/>
+    <hyperlink ref="C103" r:id="rId102" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Paleogene"/>
+    <hyperlink ref="C104" r:id="rId103" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Paleozoic"/>
+    <hyperlink ref="C105" r:id="rId104" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Pennsylvanian"/>
+    <hyperlink ref="C106" r:id="rId105" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Permian"/>
+    <hyperlink ref="C107" r:id="rId106" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Phanerozoic"/>
+    <hyperlink ref="C108" r:id="rId107" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Piacenzian"/>
+    <hyperlink ref="C109" r:id="rId108" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Pleistocene"/>
+    <hyperlink ref="C110" r:id="rId109" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Pliensbachian"/>
+    <hyperlink ref="C111" r:id="rId110" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Pliocene"/>
+    <hyperlink ref="C112" r:id="rId111" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Pragian"/>
+    <hyperlink ref="C113" r:id="rId112" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Priabonian"/>
+    <hyperlink ref="C114" r:id="rId113" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Pridoli"/>
+    <hyperlink ref="C115" r:id="rId114" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Rhaetian"/>
+    <hyperlink ref="C116" r:id="rId115" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Rhuddanian"/>
+    <hyperlink ref="C117" r:id="rId116" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Rhyacian"/>
+    <hyperlink ref="C118" r:id="rId117" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Roadian"/>
+    <hyperlink ref="C119" r:id="rId118" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Rupelian"/>
+    <hyperlink ref="C120" r:id="rId119" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Sakmarian"/>
+    <hyperlink ref="C121" r:id="rId120" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Sandbian"/>
+    <hyperlink ref="C122" r:id="rId121" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Santonian"/>
+    <hyperlink ref="C123" r:id="rId122" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Selandian"/>
+    <hyperlink ref="C124" r:id="rId123" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/CambrianSeries2"/>
+    <hyperlink ref="C125" r:id="rId124" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/CambrianSeries3"/>
+    <hyperlink ref="C126" r:id="rId125" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Serpukhovian"/>
+    <hyperlink ref="C127" r:id="rId126" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Serravallian"/>
+    <hyperlink ref="C128" r:id="rId127" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Sheinwoodian"/>
+    <hyperlink ref="C129" r:id="rId128" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Silurian"/>
+    <hyperlink ref="C130" r:id="rId129" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Sinemurian"/>
+    <hyperlink ref="C131" r:id="rId130" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/CambrianStage3"/>
+    <hyperlink ref="C132" r:id="rId131" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/CambrianStage4"/>
+    <hyperlink ref="C133" r:id="rId132" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/CambrianStage5"/>
+    <hyperlink ref="C134" r:id="rId133" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/CambrianStage10"/>
+    <hyperlink ref="C135" r:id="rId134" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Statherian"/>
+    <hyperlink ref="C136" r:id="rId135" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Telychian"/>
+    <hyperlink ref="C137" r:id="rId136" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Terreneuvian"/>
+    <hyperlink ref="C138" r:id="rId137" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Thanetian"/>
+    <hyperlink ref="C139" r:id="rId138" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Tithonian"/>
+    <hyperlink ref="C140" r:id="rId139" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Toarcian"/>
+    <hyperlink ref="C141" r:id="rId140" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Tortonian"/>
+    <hyperlink ref="C142" r:id="rId141" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Tournaisian"/>
+    <hyperlink ref="C143" r:id="rId142" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Tremadocian"/>
+    <hyperlink ref="C144" r:id="rId143" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Triassic"/>
+    <hyperlink ref="C145" r:id="rId144" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Turonian"/>
+    <hyperlink ref="C146" r:id="rId145" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Valanginian"/>
+    <hyperlink ref="C147" r:id="rId146" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Visean"/>
+    <hyperlink ref="C148" r:id="rId147" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Wenlock"/>
+    <hyperlink ref="C149" r:id="rId148" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Wordian"/>
+    <hyperlink ref="C150" r:id="rId149" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Wuchiapingian"/>
+    <hyperlink ref="C151" r:id="rId150" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Ypresian"/>
+    <hyperlink ref="C152" r:id="rId151" location="" tooltip="" display="http://resource.geosciml.org/classifier/ics/ischart/Zanclean"/>
+    <hyperlink ref="C153" r:id="rId152" location="" tooltip="" display="http://purl.obolibrary.org/obo/CHEBI_46719"/>
+    <hyperlink ref="C154" r:id="rId153" location="" tooltip="" display="http://purl.obolibrary.org/obo/OMIT_0013498"/>
+    <hyperlink ref="C155" r:id="rId154" location="" tooltip="" display="http://purl.obolibrary.org/obo/PORO_0000108"/>
+    <hyperlink ref="C156" r:id="rId155" location="" tooltip="" display="http://purl.obolibrary.org/obo/CHEBI_52239"/>
+    <hyperlink ref="C157" r:id="rId156" location="" tooltip="" display="http://purl.obolibrary.org/obo/CHEBI_17029"/>
+    <hyperlink ref="C158" r:id="rId157" location="" tooltip="" display="http://eol.org/schema/terms/highMgCalcite"/>
+    <hyperlink ref="C159" r:id="rId158" location="" tooltip="" display="http://purl.obolibrary.org/obo/CHEBI_52255"/>
+    <hyperlink ref="C160" r:id="rId159" location="" tooltip="" display="http://eol.org/schema/terms/intermediateMgCalcite"/>
+    <hyperlink ref="C161" r:id="rId160" location="" tooltip="" display="http://purl.obolibrary.org/obo/CHEBI_6457"/>
+    <hyperlink ref="C162" r:id="rId161" location="" tooltip="" display="http://eol.org/schema/terms/lowMgCalcite"/>
+    <hyperlink ref="C164" r:id="rId162" location="" tooltip="" display="http://purl.obolibrary.org/obo/CHEBI_26020"/>
+    <hyperlink ref="C165" r:id="rId163" location="" tooltip="" display="http://purl.obolibrary.org/obo/CHEBI_64389"/>
+    <hyperlink ref="C166" r:id="rId164" location="" tooltip="" display="http://purl.obolibrary.org/obo/PATO_0000984"/>
+    <hyperlink ref="C167" r:id="rId165" location="" tooltip="" display="http://purl.obolibrary.org/obo/PATO_0001485"/>
+    <hyperlink ref="C168" r:id="rId166" location="" tooltip="" display="http://purl.obolibrary.org/obo/PATO_0000592"/>
+    <hyperlink ref="C169" r:id="rId167" location="" tooltip="" display="http://purl.obolibrary.org/obo/PATO_0045059"/>
+    <hyperlink ref="C170" r:id="rId168" location="" tooltip="" display="http://purl.obolibrary.org/obo/PATO_0000591"/>
+    <hyperlink ref="C171" r:id="rId169" location="" tooltip="" display="http://eol.org/schema/terms/majorFolds"/>
+    <hyperlink ref="C172" r:id="rId170" location="" tooltip="" display="http://eol.org/schema/terms/majorInternalReinforcement"/>
+    <hyperlink ref="C173" r:id="rId171" location="" tooltip="" display="http://eol.org/schema/terms/majorRibbing"/>
+    <hyperlink ref="C174" r:id="rId172" location="" tooltip="" display="http://eol.org/schema/terms/majorSpines"/>
+    <hyperlink ref="C175" r:id="rId173" location="" tooltip="" display="http://eol.org/schema/terms/minorFolds"/>
+    <hyperlink ref="C176" r:id="rId174" location="" tooltip="" display="http://eol.org/schema/terms/minorInternalReinforcement"/>
+    <hyperlink ref="C177" r:id="rId175" location="" tooltip="" display="http://eol.org/schema/terms/minorRibbing"/>
+    <hyperlink ref="C178" r:id="rId176" location="" tooltip="" display="http://eol.org/schema/terms/minorSpines"/>
+    <hyperlink ref="C179" r:id="rId177" location="" tooltip="" display="http://purl.bioontology.org/ontology/SNOMEDCT/260413007"/>
+    <hyperlink ref="C180" r:id="rId178" location="" tooltip="" display="http://eol.org/schema/terms/photoautotrophy"/>
+    <hyperlink ref="D180" r:id="rId179" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C181" r:id="rId180" location="" tooltip="" display="http://eol.org/schema/terms/photoautotrophy"/>
+    <hyperlink ref="D181" r:id="rId181" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C182" r:id="rId182" location="" tooltip="" display="http://eol.org/schema/terms/browsing"/>
+    <hyperlink ref="D182" r:id="rId183" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C183" r:id="rId184" location="" tooltip="" display="http://www.wikidata.org/entity/Q50616418"/>
+    <hyperlink ref="D183" r:id="rId185" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C184" r:id="rId186" location="" tooltip="" display="http://www.wikidata.org/entity/Q320011"/>
+    <hyperlink ref="D184" r:id="rId187" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C185" r:id="rId188" location="" tooltip="" display="http://eol.org/schema/terms/depositFeeder"/>
+    <hyperlink ref="D185" r:id="rId189" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C186" r:id="rId190" location="" tooltip="" display="http://wikidata.org/entity/Q2750657"/>
+    <hyperlink ref="D186" r:id="rId191" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C187" r:id="rId192" location="" tooltip="" display="http://www.wikidata.org/entity/Q5316712"/>
+    <hyperlink ref="D187" r:id="rId193" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C188" r:id="rId194" location="" tooltip="" display="http://www.wikidata.org/entity/Q617573"/>
+    <hyperlink ref="D188" r:id="rId195" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C189" r:id="rId196" location="" tooltip="" display="http://www.wikidata.org/entity/Q1470764"/>
+    <hyperlink ref="D189" r:id="rId197" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C190" r:id="rId198" location="" tooltip="" display="http://www.wikidata.org/entity/Q1974986"/>
+    <hyperlink ref="D190" r:id="rId199" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C191" r:id="rId200" location="" tooltip="" display="http://www.wikidata.org/entity/Q37619060"/>
+    <hyperlink ref="D191" r:id="rId201" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C192" r:id="rId202" location="" tooltip="" display="http://www.wikidata.org/entity/Q677088"/>
+    <hyperlink ref="D192" r:id="rId203" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C193" r:id="rId204" location="" tooltip="" display="http://eol.org/schema/terms/microcarnivore"/>
+    <hyperlink ref="D193" r:id="rId205" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C194" r:id="rId206" location="" tooltip="" display="http://www.wikidata.org/entity/Q2601246"/>
+    <hyperlink ref="D194" r:id="rId207" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C195" r:id="rId208" location="" tooltip="" display="http://www.wikidata.org/entity/Q12806437"/>
+    <hyperlink ref="D195" r:id="rId209" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C196" r:id="rId210" location="" tooltip="" display="http://www.wikidata.org/entity/Q50621879"/>
+    <hyperlink ref="D196" r:id="rId211" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C197" r:id="rId212" location="" tooltip="" display="http://www.wikidata.org/entity/Q1420208"/>
+    <hyperlink ref="D197" r:id="rId213" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C198" r:id="rId214" location="" tooltip="" display="http://eol.org/schema/terms/suspensionFeeder"/>
+    <hyperlink ref="D198" r:id="rId215" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
+    <hyperlink ref="C199" r:id="rId216" location="" tooltip="" display="http://www.wikidata.org/entity/Q81875"/>
+    <hyperlink ref="D199" r:id="rId217" location="" tooltip="" display="http://eol.org/schema/terms/TrophicLevel"/>
+    <hyperlink ref="C200" r:id="rId218" location="" tooltip="" display="http://www.wikidata.org/entity/Q59099"/>
+    <hyperlink ref="D200" r:id="rId219" location="" tooltip="" display="http://eol.org/schema/terms/TrophicLevel"/>
+    <hyperlink ref="C201" r:id="rId220" location="" tooltip="" display="http://www.wikidata.org/entity/Q164509"/>
+    <hyperlink ref="D201" r:id="rId221" location="" tooltip="" display="http://eol.org/schema/terms/TrophicLevel"/>
+    <hyperlink ref="C202" r:id="rId222" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00000570"/>
+    <hyperlink ref="F202" r:id="rId223" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C203" r:id="rId224" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00000303"/>
+    <hyperlink ref="F203" r:id="rId225" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C204" r:id="rId226" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00002224"/>
+    <hyperlink ref="F204" r:id="rId227" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C205" r:id="rId228" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00002037"/>
+    <hyperlink ref="F205" r:id="rId229" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C206" r:id="rId230" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00002012"/>
+    <hyperlink ref="F206" r:id="rId231" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C207" r:id="rId232" location="" tooltip="" display="http://eol.org/schema/terms/innerShelf"/>
+    <hyperlink ref="F207" r:id="rId233" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C208" r:id="rId234" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00000038"/>
+    <hyperlink ref="F208" r:id="rId235" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C209" r:id="rId236" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00000569"/>
+    <hyperlink ref="F209" r:id="rId237" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C210" r:id="rId238" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00000207"/>
+    <hyperlink ref="F210" r:id="rId239" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C211" r:id="rId240" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00002223"/>
+    <hyperlink ref="F211" r:id="rId241" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C212" r:id="rId242" location="" tooltip="" display="http://eol.org/schema/terms/outerShelf"/>
+    <hyperlink ref="F212" r:id="rId243" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C213" r:id="rId244" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00002009"/>
+    <hyperlink ref="F213" r:id="rId245" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C214" r:id="rId246" location="" tooltip="" display="http://purl.obolibrary.org/obo/NBO_0000055"/>
+    <hyperlink ref="D214" r:id="rId247" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0040011"/>
+    <hyperlink ref="C215" r:id="rId248" location="" tooltip="" display="http://purl.obolibrary.org/obo/NBO_0000369 "/>
+    <hyperlink ref="D215" r:id="rId249" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0040011"/>
+    <hyperlink ref="C216" r:id="rId250" location="" tooltip="" display="http://purl.obolibrary.org/obo/NBO_0000370"/>
+    <hyperlink ref="D216" r:id="rId251" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0040011"/>
+    <hyperlink ref="C217" r:id="rId252" location="" tooltip="" display="http://purl.obolibrary.org/obo/NBO_0000364"/>
+    <hyperlink ref="D217" r:id="rId253" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0040011"/>
+    <hyperlink ref="C218" r:id="rId254" location="" tooltip="" display="http://purl.obolibrary.org/obo/NBO_0000366"/>
+    <hyperlink ref="D218" r:id="rId255" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0040011"/>
+    <hyperlink ref="C219" r:id="rId256" location="" tooltip="" display="http://eol.org/schema/terms/deepInfaunal"/>
+    <hyperlink ref="D219" r:id="rId257" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C220" r:id="rId258" location="" tooltip="" display="http://www.marinespecies.org/traits/Epifaunal"/>
+    <hyperlink ref="D220" r:id="rId259" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C221" r:id="rId260" location="" tooltip="" display="http://www.marinespecies.org/traits/Infaunal"/>
+    <hyperlink ref="D221" r:id="rId261" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C222" r:id="rId262" location="" tooltip="" display="http://eol.org/schema/terms/intermediateEpifaunal"/>
+    <hyperlink ref="D222" r:id="rId263" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C223" r:id="rId264" location="" tooltip="" display="http://eol.org/schema/terms/lowEpifaunal"/>
+    <hyperlink ref="D223" r:id="rId265" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C224" r:id="rId266" location="" tooltip="" display="http://eol.org/schema/terms/nektobenthic"/>
+    <hyperlink ref="D224" r:id="rId267" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C225" r:id="rId268" location="" tooltip="" display="http://www.marinespecies.org/traits/Nekton"/>
+    <hyperlink ref="D225" r:id="rId269" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C226" r:id="rId270" location="" tooltip="" display="http://www.marinespecies.org/traits/Plankton"/>
+    <hyperlink ref="D226" r:id="rId271" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C227" r:id="rId272" location="" tooltip="" display="http://eol.org/schema/terms/semiInfaunal"/>
+    <hyperlink ref="D227" r:id="rId273" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C228" r:id="rId274" location="" tooltip="" display="http://eol.org/schema/terms/shallowInfaunal"/>
+    <hyperlink ref="D228" r:id="rId275" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C229" r:id="rId276" location="" tooltip="" display="http://eol.org/schema/terms/upperEpifaunal"/>
+    <hyperlink ref="D229" r:id="rId277" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C230" r:id="rId278" location="" tooltip="" display="http://eol.org/schema/terms/hardSubstrateBoring"/>
+    <hyperlink ref="D230" r:id="rId279" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C231" r:id="rId280" location="" tooltip="" display="http://eol.org/schema/terms/amphibious"/>
+    <hyperlink ref="D231" r:id="rId281" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C232" r:id="rId282" location="" tooltip="" display="http://eol.org/schema/terms/aquatic"/>
+    <hyperlink ref="D232" r:id="rId283" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C233" r:id="rId284" location="" tooltip="" display="http://purl.obolibrary.org/obo/ENVO_00000571"/>
+    <hyperlink ref="D233" r:id="rId285" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C234" r:id="rId286" location="" tooltip="" display="http://www.wikidata.org/entity/Q2850019"/>
+    <hyperlink ref="D234" r:id="rId287" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C235" r:id="rId288" location="" tooltip="" display="http://eol.org/schema/terms/semifossorial"/>
+    <hyperlink ref="D235" r:id="rId289" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C236" r:id="rId290" location="" tooltip="" display="http://eol.org/schema/terms/groundDwelling"/>
+    <hyperlink ref="D236" r:id="rId291" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C237" r:id="rId292" location="" tooltip="" display="http://eol.org/schema/terms/activelyMobile"/>
+    <hyperlink ref="D237" r:id="rId293" location="" tooltip="" display="http://www.wikidata.org/entity/Q33596"/>
+    <hyperlink ref="F237" r:id="rId294" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C238" r:id="rId295" location="" tooltip="" display="http://eol.org/schema/terms/Attached"/>
+    <hyperlink ref="D238" r:id="rId296" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C239" r:id="rId297" location="" tooltip="" display="http://www.wikidata.org/entity/Q640114"/>
+    <hyperlink ref="D239" r:id="rId298" location="" tooltip="" display="http://eol.org/schema/terms/EcomorphologicalGuild"/>
+    <hyperlink ref="C240" r:id="rId299" location="" tooltip="" display="http://eol.org/schema/terms/facultativelyMobile"/>
+    <hyperlink ref="D240" r:id="rId300" location="" tooltip="" display="http://www.wikidata.org/entity/Q33596"/>
+    <hyperlink ref="F240" r:id="rId301" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C241" r:id="rId302" location="" tooltip="" display="http://eol.org/schema/terms/fastMoving"/>
+    <hyperlink ref="D241" r:id="rId303" location="" tooltip="" display="http://www.wikidata.org/entity/Q33596"/>
+    <hyperlink ref="F241" r:id="rId304" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C242" r:id="rId305" location="" tooltip="" display="http://eol.org/schema/terms/passivelyMobile"/>
+    <hyperlink ref="D242" r:id="rId306" location="" tooltip="" display="http://www.wikidata.org/entity/Q33596"/>
+    <hyperlink ref="F242" r:id="rId307" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C243" r:id="rId308" location="" tooltip="" display="http://eol.org/schema/terms/slowMoving"/>
+    <hyperlink ref="D243" r:id="rId309" location="" tooltip="" display="http://www.wikidata.org/entity/Q33596"/>
+    <hyperlink ref="F243" r:id="rId310" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C244" r:id="rId311" location="" tooltip="" display="http://www.wikidata.org/entity/Q1759860"/>
+    <hyperlink ref="D244" r:id="rId312" location="" tooltip="" display="http://www.wikidata.org/entity/Q33596"/>
+    <hyperlink ref="F244" r:id="rId313" location="" tooltip="" display="http://www.ebi.ac.uk/efo/EFO_0001272"/>
+    <hyperlink ref="C245" r:id="rId314" location="" tooltip="" display="http://eol.org/schema/terms/alternatingReproduction"/>
+    <hyperlink ref="D245" r:id="rId315" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0000003"/>
+    <hyperlink ref="C246" r:id="rId316" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0019954"/>
+    <hyperlink ref="D246" r:id="rId317" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0000003"/>
+    <hyperlink ref="C249" r:id="rId318" location="" tooltip="" display="http://www.marinespecies.org/traits/Oviparous"/>
+    <hyperlink ref="D249" r:id="rId319" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0000003"/>
+    <hyperlink ref="C250" r:id="rId320" location="" tooltip="" display="http://www.marinespecies.org/traits/Ovoviviparous"/>
+    <hyperlink ref="D250" r:id="rId321" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0000003"/>
+    <hyperlink ref="C251" r:id="rId322" location="" tooltip="" display="http://www.marinespecies.org/traits/Viviparous"/>
+    <hyperlink ref="D251" r:id="rId323" location="" tooltip="" display="http://purl.obolibrary.org/obo/GO_0000003"/>
+    <hyperlink ref="C252" r:id="rId324" location="" tooltip="" display="http://purl.obolibrary.org/obo/PATO_0000462"/>
+    <hyperlink ref="C253" r:id="rId325" location="" tooltip="" display="http://purl.obolibrary.org/obo/PATO_0002123"/>
+    <hyperlink ref="C254" r:id="rId326" location="" tooltip="" display="http://purl.obolibrary.org/obo/UBERON_0000970"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/PaleoDB/pbdb_mappings.xlsx
+++ b/PaleoDB/pbdb_mappings.xlsx
@@ -2815,10 +2815,10 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="12"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>http://www.wikidata.org/entity/Q50621879</t>
+        <color indexed="14"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>http://eol.org/schema/terms/photosymbiotroph</t>
     </r>
   </si>
   <si>
@@ -9115,7 +9115,7 @@
     <hyperlink ref="D194" r:id="rId207" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
     <hyperlink ref="C195" r:id="rId208" location="" tooltip="" display="http://www.wikidata.org/entity/Q12806437"/>
     <hyperlink ref="D195" r:id="rId209" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
-    <hyperlink ref="C196" r:id="rId210" location="" tooltip="" display="http://www.wikidata.org/entity/Q50621879"/>
+    <hyperlink ref="C196" r:id="rId210" location="" tooltip="" display="http://eol.org/schema/terms/photosymbiotroph"/>
     <hyperlink ref="D196" r:id="rId211" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
     <hyperlink ref="C197" r:id="rId212" location="" tooltip="" display="http://www.wikidata.org/entity/Q1420208"/>
     <hyperlink ref="D197" r:id="rId213" location="" tooltip="" display="http://eol.org/schema/terms/TrophicGuild"/>
